--- a/Kariyer Masası.xlsx
+++ b/Kariyer Masası.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kadirari\Desktop\KariyerMasasiEF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8E2FCA-9D50-4D31-AB60-237D09F617C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="23070" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="İlkAyak" sheetId="1" r:id="rId1"/>
@@ -225,7 +224,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -235,12 +234,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -255,8 +260,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,35 +542,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="44.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -597,7 +603,7 @@
       <c r="L1" t="s">
         <v>45</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>55</v>
       </c>
       <c r="N1" t="s">
@@ -607,11 +613,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
@@ -644,7 +650,7 @@
       <c r="L2" t="s">
         <v>4</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N2" t="s">
@@ -654,11 +660,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
@@ -692,11 +698,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
@@ -727,11 +733,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
@@ -759,11 +765,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
@@ -785,8 +791,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
@@ -808,8 +815,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C8" t="s">
@@ -825,85 +833,96 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C16" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
         <v>61</v>
       </c>
     </row>

--- a/Kariyer Masası.xlsx
+++ b/Kariyer Masası.xlsx
@@ -546,7 +546,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,10 +573,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E1" t="s">
@@ -620,10 +620,10 @@
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E2" t="s">
@@ -667,10 +667,10 @@
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E3" t="s">
@@ -705,10 +705,10 @@
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" t="s">
@@ -740,10 +740,10 @@
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E5" t="s">
@@ -772,10 +772,10 @@
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E6" t="s">
@@ -796,10 +796,10 @@
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E7" t="s">
@@ -820,10 +820,10 @@
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E8" t="s">
@@ -838,93 +838,106 @@
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kariyer Masası.xlsx
+++ b/Kariyer Masası.xlsx
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,7 +588,7 @@
       <c r="G1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I1" t="s">
@@ -600,7 +600,7 @@
       <c r="K1" t="s">
         <v>42</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -635,7 +635,7 @@
       <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I2" t="s">
@@ -647,7 +647,7 @@
       <c r="K2" t="s">
         <v>15</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M2" s="1" t="s">

--- a/Kariyer Masası.xlsx
+++ b/Kariyer Masası.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kadirari\Desktop\KariyerMasasiEF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x\Documents\GitHub\KariyerMasasiEF\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12348"/>
   </bookViews>
   <sheets>
     <sheet name="İlkAyak" sheetId="1" r:id="rId1"/>
@@ -152,9 +152,6 @@
     <t>UserComputerInformation</t>
   </si>
   <si>
-    <t>UserRefernace</t>
-  </si>
-  <si>
     <t>NameSurname</t>
   </si>
   <si>
@@ -219,6 +216,9 @@
   </si>
   <si>
     <t>SpecialDirectory</t>
+  </si>
+  <si>
+    <t>UserReference</t>
   </si>
 </sst>
 </file>
@@ -545,28 +545,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -579,41 +579,41 @@
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K1" t="s">
-        <v>42</v>
+      <c r="K1" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N1" t="s">
-        <v>62</v>
-      </c>
-      <c r="O1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -624,27 +624,27 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="L2" s="1" t="s">
@@ -653,14 +653,14 @@
       <c r="M2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -673,32 +673,32 @@
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="K3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -706,34 +706,35 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -744,28 +745,29 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K5" t="s">
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -773,25 +775,28 @@
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>11</v>
@@ -802,20 +807,21 @@
       <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>13</v>
@@ -826,14 +832,17 @@
       <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I8" t="s">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="I8" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -842,8 +851,13 @@
         <v>13</v>
       </c>
       <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>23</v>
@@ -852,92 +866,142 @@
         <v>10</v>
       </c>
       <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
